--- a/Assets/ConfigExcel/cs_UIPanel.xlsx
+++ b/Assets/ConfigExcel/cs_UIPanel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GameCreate\2D_RogueLikeDemo_1\Assets\ConfigExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GameCreate\CardsRogueLike\Assets\ConfigExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E177A2F-C192-4C55-A464-034C7087F487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2E59E6-EBB9-4777-BDA6-838771D5B943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7965" yWindow="5715" windowWidth="28800" windowHeight="15885" tabRatio="592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="23040" windowHeight="12660" tabRatio="592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="@uiPanel" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,6 +145,14 @@
   </si>
   <si>
     <t>MainMenuPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_BattleTest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -222,10 +230,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -249,7 +256,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="战斗数值"/>
@@ -550,129 +557,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.125" customWidth="1"/>
-    <col min="2" max="2" width="24.375" customWidth="1"/>
-    <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="4" max="4" width="21.125" customWidth="1"/>
-    <col min="5" max="5" width="24.75" customWidth="1"/>
-    <col min="6" max="6" width="22.875" customWidth="1"/>
-    <col min="7" max="7" width="68.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.625" customWidth="1"/>
-    <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="18.625" customWidth="1"/>
-    <col min="12" max="12" width="17.875" customWidth="1"/>
-    <col min="13" max="13" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" customWidth="1"/>
+    <col min="7" max="7" width="68.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18.6640625" customWidth="1"/>
+    <col min="12" max="12" width="17.88671875" customWidth="1"/>
+    <col min="13" max="13" width="17.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="K6" s="2"/>
-      <c r="O6" s="2"/>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="K7" s="2"/>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="K8" s="2"/>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="J9"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="K10" s="2"/>
-      <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="K11" s="2"/>
-      <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="K12" s="2"/>
-      <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="K13" s="2"/>
-      <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="K14" s="2"/>
-      <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="K15" s="2"/>
-      <c r="O15" s="2"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="K16" s="2"/>
-      <c r="O16" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -684,41 +650,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFDCE25E-45DE-47AD-BEB2-BECE03400CD6}">
-  <dimension ref="B2:B8"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5" customWidth="1"/>
-    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B8" s="2"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -726,47 +670,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06713D50-EF8F-4CE0-992D-7E216A90EA33}">
-  <dimension ref="A2:B8"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
